--- a/results/mp/tinybert/corona/confidence/84/desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,334 +40,310 @@
     <t>name</t>
   </si>
   <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>warns</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>kills</t>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>uncertainty</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>chaos</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>shame</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>creative</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>security</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>donate</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>growth</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>and</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -725,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,10 +709,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -797,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -815,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -844,13 +820,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -862,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -886,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -894,13 +870,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -912,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -936,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -944,13 +920,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -962,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -986,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -994,13 +970,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1012,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1036,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1044,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1062,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1086,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1094,13 +1070,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9166666666666666</v>
+        <v>0.7602739726027398</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1112,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1136,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1144,13 +1120,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9090909090909091</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1162,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.96875</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1194,37 +1170,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8888888888888888</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>8</v>
       </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1236,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1244,13 +1220,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8888888888888888</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1262,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.9375</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1286,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1294,7 +1270,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8823529411764706</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -1312,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.925</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1336,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1344,7 +1320,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.88</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C14">
         <v>22</v>
@@ -1362,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.9166666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1386,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1394,13 +1370,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.875</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1412,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.9166666666666666</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1436,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1444,13 +1420,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8666666666666667</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1462,31 +1438,31 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16">
+        <v>0.875</v>
+      </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>2</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16">
-        <v>0.9019607843137255</v>
-      </c>
-      <c r="L16">
-        <v>46</v>
-      </c>
-      <c r="M16">
-        <v>46</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1494,13 +1470,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8441558441558441</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C17">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1512,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.8888888888888888</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1536,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1544,13 +1520,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8333333333333334</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1562,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.8888888888888888</v>
+        <v>0.8671875</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1586,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1594,13 +1570,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1612,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1636,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1644,13 +1620,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.75</v>
+        <v>0.3062015503875969</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1662,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>358</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.8823529411764706</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1686,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1694,13 +1670,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7272727272727273</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1712,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.88</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1736,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1744,13 +1720,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7272727272727273</v>
+        <v>0.2751322751322751</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1762,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.8627450980392157</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="L22">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1786,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1794,13 +1770,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1812,19 +1788,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.8518518518518519</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1836,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1844,13 +1820,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.625</v>
+        <v>0.05</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1862,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>342</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>0.8461538461538461</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1886,45 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="C25">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>11</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>7</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>0.8392857142857143</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L25">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1940,951 +1892,615 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.5879828326180258</v>
-      </c>
-      <c r="C26">
-        <v>137</v>
-      </c>
-      <c r="D26">
-        <v>137</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>96</v>
-      </c>
       <c r="J26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L26">
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <v>22</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27">
+        <v>0.8125</v>
+      </c>
+      <c r="L27">
+        <v>13</v>
+      </c>
+      <c r="M27">
+        <v>13</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L28">
+        <v>29</v>
+      </c>
+      <c r="M28">
+        <v>29</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29">
+        <v>0.8018867924528302</v>
+      </c>
+      <c r="L29">
+        <v>85</v>
+      </c>
+      <c r="M29">
+        <v>85</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30">
+        <v>0.775</v>
+      </c>
+      <c r="L30">
+        <v>124</v>
+      </c>
+      <c r="M30">
+        <v>124</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31">
+        <v>0.76</v>
+      </c>
+      <c r="L31">
+        <v>38</v>
+      </c>
+      <c r="M31">
+        <v>38</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32">
+        <v>0.741514360313316</v>
+      </c>
+      <c r="L32">
+        <v>284</v>
+      </c>
+      <c r="M32">
+        <v>284</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="L33">
+        <v>14</v>
+      </c>
+      <c r="M33">
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="L34">
+        <v>46</v>
+      </c>
+      <c r="M34">
+        <v>46</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L36">
+        <v>20</v>
+      </c>
+      <c r="M36">
+        <v>20</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37">
+        <v>0.7127659574468085</v>
+      </c>
+      <c r="L37">
+        <v>67</v>
+      </c>
+      <c r="M37">
+        <v>67</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L38">
+        <v>34</v>
+      </c>
+      <c r="M38">
+        <v>34</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39">
+        <v>0.6677966101694915</v>
+      </c>
+      <c r="L39">
+        <v>197</v>
+      </c>
+      <c r="M39">
+        <v>197</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K40">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L40">
+        <v>18</v>
+      </c>
+      <c r="M40">
+        <v>18</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K26">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L26">
-        <v>27</v>
-      </c>
-      <c r="M26">
-        <v>27</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="C27">
+      <c r="K41">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L41">
+        <v>22</v>
+      </c>
+      <c r="M41">
+        <v>22</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K42">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="L42">
+        <v>20</v>
+      </c>
+      <c r="M42">
+        <v>20</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="L43">
+        <v>20</v>
+      </c>
+      <c r="M43">
+        <v>20</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44">
+        <v>0.6046511627906976</v>
+      </c>
+      <c r="L44">
+        <v>26</v>
+      </c>
+      <c r="M44">
+        <v>26</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45">
+        <v>0.6</v>
+      </c>
+      <c r="L45">
+        <v>204</v>
+      </c>
+      <c r="M45">
+        <v>204</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K46">
+        <v>0.6</v>
+      </c>
+      <c r="L46">
+        <v>21</v>
+      </c>
+      <c r="M46">
+        <v>21</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L47">
+        <v>14</v>
+      </c>
+      <c r="M47">
+        <v>14</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>10</v>
       </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>11</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K27">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L27">
-        <v>9</v>
-      </c>
-      <c r="M27">
-        <v>9</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="C28">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K28">
-        <v>0.8103448275862069</v>
-      </c>
-      <c r="L28">
-        <v>47</v>
-      </c>
-      <c r="M28">
-        <v>47</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="C29">
-        <v>13</v>
-      </c>
-      <c r="D29">
-        <v>13</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>15</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29">
-        <v>0.8</v>
-      </c>
-      <c r="L29">
-        <v>20</v>
-      </c>
-      <c r="M29">
-        <v>20</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.4482758620689655</v>
-      </c>
-      <c r="C30">
-        <v>13</v>
-      </c>
-      <c r="D30">
-        <v>13</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K48">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L48">
         <v>16</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K30">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L30">
-        <v>23</v>
-      </c>
-      <c r="M30">
-        <v>23</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="C31">
+      <c r="M48">
+        <v>16</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>12</v>
-      </c>
-      <c r="D31">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>15</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31">
-        <v>0.7808219178082192</v>
-      </c>
-      <c r="L31">
-        <v>57</v>
-      </c>
-      <c r="M31">
-        <v>57</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.4375</v>
-      </c>
-      <c r="C32">
-        <v>7</v>
-      </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>9</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K32">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L32">
-        <v>7</v>
-      </c>
-      <c r="M32">
-        <v>7</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-      <c r="D33">
-        <v>7</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>12</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K33">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L33">
-        <v>7</v>
-      </c>
-      <c r="M33">
-        <v>7</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>7</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>12</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K34">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L34">
-        <v>7</v>
-      </c>
-      <c r="M34">
-        <v>7</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="C35">
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>17</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K35">
-        <v>0.7746478873239436</v>
-      </c>
-      <c r="L35">
-        <v>165</v>
-      </c>
-      <c r="M35">
-        <v>165</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.3023255813953488</v>
-      </c>
-      <c r="C36">
-        <v>26</v>
-      </c>
-      <c r="D36">
-        <v>26</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>60</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K36">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L36">
-        <v>10</v>
-      </c>
-      <c r="M36">
-        <v>10</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.3</v>
-      </c>
-      <c r="C37">
-        <v>24</v>
-      </c>
-      <c r="D37">
-        <v>24</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>56</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K37">
-        <v>0.75</v>
-      </c>
-      <c r="L37">
-        <v>18</v>
-      </c>
-      <c r="M37">
-        <v>18</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.2272727272727273</v>
-      </c>
-      <c r="C38">
-        <v>25</v>
-      </c>
-      <c r="D38">
-        <v>25</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>85</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K38">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L38">
-        <v>16</v>
-      </c>
-      <c r="M38">
-        <v>16</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>10</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>125</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K39">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L39">
-        <v>10</v>
-      </c>
-      <c r="M39">
-        <v>10</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K40">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L40">
-        <v>12</v>
-      </c>
-      <c r="M40">
-        <v>12</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K41">
-        <v>0.7</v>
-      </c>
-      <c r="L41">
-        <v>21</v>
-      </c>
-      <c r="M41">
-        <v>21</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K42">
-        <v>0.7</v>
-      </c>
-      <c r="L42">
-        <v>7</v>
-      </c>
-      <c r="M42">
-        <v>7</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43">
-        <v>0.7</v>
-      </c>
-      <c r="L43">
-        <v>7</v>
-      </c>
-      <c r="M43">
-        <v>7</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K44">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L44">
-        <v>9</v>
-      </c>
-      <c r="M44">
-        <v>9</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K45">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L45">
-        <v>9</v>
-      </c>
-      <c r="M45">
-        <v>9</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K46">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="L46">
-        <v>13</v>
-      </c>
-      <c r="M46">
-        <v>13</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K47">
-        <v>0.6821705426356589</v>
-      </c>
-      <c r="L47">
-        <v>88</v>
-      </c>
-      <c r="M47">
-        <v>88</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48">
-        <v>0.68</v>
-      </c>
-      <c r="L48">
-        <v>17</v>
-      </c>
-      <c r="M48">
-        <v>17</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>8</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.6756756756756757</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2896,21 +2512,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.6666666666666666</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L50">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="M50">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2922,21 +2538,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.6597222222222222</v>
+        <v>0.5439330543933054</v>
       </c>
       <c r="L51">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="M51">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2948,21 +2564,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>49</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.6521739130434783</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L52">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2974,21 +2590,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.65</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3000,21 +2616,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K54">
-        <v>0.6363636363636364</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L54">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3026,21 +2642,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.6153846153846154</v>
+        <v>0.525</v>
       </c>
       <c r="L55">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3052,21 +2668,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K56">
-        <v>0.6153846153846154</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L56">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="M56">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3078,21 +2694,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K57">
-        <v>0.6071428571428571</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L57">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3104,21 +2720,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="K58">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="L58">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3130,21 +2746,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="K59">
-        <v>0.5833333333333334</v>
+        <v>0.484375</v>
       </c>
       <c r="L59">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="M59">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3156,21 +2772,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="K60">
-        <v>0.5769230769230769</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3182,21 +2798,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="K61">
-        <v>0.5142857142857142</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3208,21 +2824,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K62">
-        <v>0.5</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L62">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="M62">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3234,21 +2850,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K63">
-        <v>0.5</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="L63">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3260,21 +2876,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K64">
-        <v>0.46875</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3286,21 +2902,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>17</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="K65">
-        <v>0.4473684210526316</v>
+        <v>0.03110047846889952</v>
       </c>
       <c r="L65">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3312,73 +2928,73 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>21</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="K66">
-        <v>0.4</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="L66">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M66">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>12</v>
+        <v>880</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K67">
-        <v>0.1481481481481481</v>
+        <v>0.02024291497975709</v>
       </c>
       <c r="L67">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M67">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>46</v>
+        <v>968</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="K68">
-        <v>0.03827751196172249</v>
+        <v>0.01833333333333333</v>
       </c>
       <c r="L68">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3390,163 +3006,345 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>201</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="K69">
-        <v>0.02926829268292683</v>
+        <v>0.01497566454511419</v>
       </c>
       <c r="L69">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M69">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>398</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="K70">
-        <v>0.01754385964912281</v>
+        <v>0.01433838590741499</v>
       </c>
       <c r="L70">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="M70">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>448</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K71">
-        <v>0.01643192488262911</v>
+        <v>0.01356407857811038</v>
       </c>
       <c r="L71">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>419</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K72">
-        <v>0.007551240560949299</v>
+        <v>0.01010886469673406</v>
       </c>
       <c r="L72">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M72">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N72">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O72">
-        <v>0.12</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>920</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="K73">
-        <v>0.0071301247771836</v>
+        <v>0.01003764115432873</v>
       </c>
       <c r="L73">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M73">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N73">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>1114</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K74">
-        <v>0.004584527220630372</v>
+        <v>0.008211496094532346</v>
       </c>
       <c r="L74">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="M74">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="N74">
+        <v>0.93</v>
+      </c>
+      <c r="O74">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>4952</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K75">
+        <v>0.007993268826251577</v>
+      </c>
+      <c r="L75">
+        <v>19</v>
+      </c>
+      <c r="M75">
+        <v>21</v>
+      </c>
+      <c r="N75">
+        <v>0.9</v>
+      </c>
+      <c r="O75">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K76">
+        <v>0.007731958762886598</v>
+      </c>
+      <c r="L76">
+        <v>24</v>
+      </c>
+      <c r="M76">
+        <v>27</v>
+      </c>
+      <c r="N76">
         <v>0.89</v>
       </c>
-      <c r="O74">
+      <c r="O76">
         <v>0.11</v>
       </c>
-      <c r="P74" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>1737</v>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K77">
+        <v>0.007397133610725843</v>
+      </c>
+      <c r="L77">
+        <v>32</v>
+      </c>
+      <c r="M77">
+        <v>34</v>
+      </c>
+      <c r="N77">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O77">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K78">
+        <v>0.006950880444856348</v>
+      </c>
+      <c r="L78">
+        <v>15</v>
+      </c>
+      <c r="M78">
+        <v>15</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K79">
+        <v>0.0064963187527068</v>
+      </c>
+      <c r="L79">
+        <v>15</v>
+      </c>
+      <c r="M79">
+        <v>15</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K80">
+        <v>0.004379105411323116</v>
+      </c>
+      <c r="L80">
+        <v>14</v>
+      </c>
+      <c r="M80">
+        <v>18</v>
+      </c>
+      <c r="N80">
+        <v>0.78</v>
+      </c>
+      <c r="O80">
+        <v>0.22</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K81">
+        <v>0.004069767441860465</v>
+      </c>
+      <c r="L81">
+        <v>21</v>
+      </c>
+      <c r="M81">
+        <v>26</v>
+      </c>
+      <c r="N81">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O81">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>5139</v>
       </c>
     </row>
   </sheetData>
